--- a/Datasets/Orders.xlsx
+++ b/Datasets/Orders.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaide\Desktop\Virtua Search\Vituare-Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaide\Desktop\Virtua Search\Vituare-Research\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FE7779-7DF1-428C-8A44-45BEA3A6DFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984DA169-B2B9-4152-A0CA-4222EB0F63A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Mar" sheetId="3" r:id="rId3"/>
     <sheet name="Employee" sheetId="4" r:id="rId4"/>
     <sheet name="Salaries" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +38,97 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="6">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="6">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -53,11 +142,30 @@
 </code>
     </initialization>
   </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code xml:space="preserve">df = pd.concat((xl(%P2%, headers=True), xl(%P3%, headers=True),xl(%P4%, headers=True)), ignore_index=True)
+# df.loc[[0, 4, 6, 7, 9], :]
+df[df.Sales &gt; 30000]
+</code>
+    </pythonScript>
+    <pythonScript>
+      <code>plt.hist(df["Sales"])
+plt.title("Histogram for Sale")</code>
+    </pythonScript>
+    <pythonScript>
+      <code>df = xl(%P2%, headers=True).merge(xl(%P3%, headers=True), how = "inner")
+df</code>
+    </pythonScript>
+    <pythonScript>
+      <code>plt.bar(df["Name"], df["Salary"])</code>
+    </pythonScript>
+  </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Order ID</t>
   </si>
@@ -105,6 +213,9 @@
   </si>
   <si>
     <t>Rosie</t>
+  </si>
+  <si>
+    <t>George</t>
   </si>
 </sst>
 </file>
@@ -171,11 +282,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -225,9 +337,334 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <a r="12" c="3">
+    <v t="s"/>
+    <v t="s">Order ID</v>
+    <v t="s">Sales</v>
+    <v>0</v>
+    <v>101</v>
+    <v>32818</v>
+    <v>7</v>
+    <v>108</v>
+    <v>38781</v>
+    <v>10</v>
+    <v>111</v>
+    <v>42936</v>
+    <v>11</v>
+    <v>112</v>
+    <v>42515</v>
+    <v>14</v>
+    <v>115</v>
+    <v>49103</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>19</v>
+    <v>120</v>
+    <v>32661</v>
+    <v>20</v>
+    <v>121</v>
+    <v>32337</v>
+    <v>23</v>
+    <v>124</v>
+    <v>37743</v>
+    <v>24</v>
+    <v>125</v>
+    <v>49916</v>
+    <v>29</v>
+    <v>130</v>
+    <v>48238</v>
+  </a>
+  <a r="2">
+    <v>535</v>
+    <v>433</v>
+  </a>
+  <a r="6" c="4">
+    <v t="s"/>
+    <v t="s">Name</v>
+    <v t="s">Designation</v>
+    <v t="s">Salary</v>
+    <v>0</v>
+    <v t="s">Jane</v>
+    <v t="s">HR</v>
+    <v>40000</v>
+    <v>1</v>
+    <v t="s">Jack</v>
+    <v t="s">Developer</v>
+    <v>25000</v>
+    <v>2</v>
+    <v t="s">Sam</v>
+    <v t="s">Manager</v>
+    <v>70000</v>
+    <v>3</v>
+    <v t="s">Rosie</v>
+    <v t="s">HR</v>
+    <v>40000</v>
+    <v>4</v>
+    <v t="s">George</v>
+    <v t="s">Manager</v>
+    <v>70000</v>
+  </a>
+  <a r="2">
+    <v>570</v>
+    <v>413</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="16">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">    Order ID  Sales
+0        101  32818
+7        108  38781
+10       111  42936
+11       112  42515
+14       115  49103
+15       116  41591
+16       117  33898
+17       118  41637
+19       120  32661
+20       121  32337
+23       124  37743
+24       125...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>3</v>
+    <v>3</v>
+    <v>4</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=535x433 at 0x7FCB02F57A70&gt;</v>
+    <v>5</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+    <v>3</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>5</v>
+    <v>8</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">     Name Designation  Salary
+0    Jane          HR   40000
+1    Jack   Developer   25000
+2     Sam     Manager   70000
+3   Rosie          HR   40000
+4  George     Manager   70000</v>
+    <v>9</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>1</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+  </rv>
+  <rv s="4">
+    <v>Image</v>
+    <v>3</v>
+    <v>11</v>
+    <v>12</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=570x413 at 0x7FCB02FC9760&gt;</v>
+    <v>13</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <v>1</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_Format" t="spb"/>
+    <k n="image" t="r"/>
+    <k n="size" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="6">
+    <spb s="0">
+      <v>13</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-service/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+    </spb>
+    <spb s="0">
+      <v>5</v>
+      <v>3</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>4</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="image" t="i"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <richProperties>
+    <rPr n="IsHeroField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C22105A2-D75C-468D-B372-564DFF5F6931}" name="Employee" displayName="Employee" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{C22105A2-D75C-468D-B372-564DFF5F6931}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C22105A2-D75C-468D-B372-564DFF5F6931}" name="Employee" displayName="Employee" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{C22105A2-D75C-468D-B372-564DFF5F6931}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1680624F-9816-4B90-9A50-7CD3F865EFBF}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{50988F67-5DBD-445D-8F05-81A9C0CF48A1}" name="Column2" dataDxfId="0"/>
@@ -535,7 +972,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,16 +1276,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -897,6 +1335,14 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -911,13 +1357,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -982,4 +1429,298 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441C89CF-103C-41A8-83C1-64DB530422B9}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="66.81640625" customWidth="1"/>
+    <col min="2" max="2" width="83.7265625" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="6.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="e" cm="1" vm="1">
+        <f t="array" ref="A1">_xlfn._xlws.PY(0,1,Jan!A1:B11,Feb!A1:B11,Mar!A1:B11)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:D12">_FV(A1,"arrayPreview")</f>
+        <v/>
+      </c>
+      <c r="C1" t="str">
+        <v>Order ID</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>32818</v>
+      </c>
+      <c r="F2">
+        <f>SUM(D:D)</f>
+        <v>407048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>108</v>
+      </c>
+      <c r="D3">
+        <v>38781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>111</v>
+      </c>
+      <c r="D4">
+        <v>42936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>112</v>
+      </c>
+      <c r="D5">
+        <v>42515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>115</v>
+      </c>
+      <c r="D6">
+        <v>49103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="str">
+        <v>...</v>
+      </c>
+      <c r="C7" t="str">
+        <v>...</v>
+      </c>
+      <c r="D7" t="str">
+        <v>...</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>32661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>121</v>
+      </c>
+      <c r="D9">
+        <v>32337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>124</v>
+      </c>
+      <c r="D10">
+        <v>37743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>125</v>
+      </c>
+      <c r="D11">
+        <v>49916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>130</v>
+      </c>
+      <c r="D12">
+        <v>48238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="334" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="e" cm="1" vm="2">
+        <f t="array" ref="A14">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B14" t="e" cm="1" vm="3">
+        <f t="array" ref="B14">_FV(A14,"image")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="316" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBC6C33-CB75-40D8-9007-A6C5FFC20C65}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.26953125" customWidth="1"/>
+    <col min="2" max="2" width="69.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="e" cm="1" vm="4">
+        <f t="array" ref="A1">_xlfn._xlws.PY(2,1,Employee[],Salary[])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:E6">_FV(A1,"arrayPreview")</f>
+        <v/>
+      </c>
+      <c r="C1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Designation</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Salary</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="D2" t="str">
+        <v>HR</v>
+      </c>
+      <c r="E2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Jack</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Developer</v>
+      </c>
+      <c r="E3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Sam</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Manager</v>
+      </c>
+      <c r="E4">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Rosie</v>
+      </c>
+      <c r="D5" t="str">
+        <v>HR</v>
+      </c>
+      <c r="E5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="str">
+        <v>George</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Manager</v>
+      </c>
+      <c r="E6">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:5" ht="305" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="e" cm="1" vm="5">
+        <f t="array" ref="A9">_xlfn._xlws.PY(3,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B9" t="e" cm="1" vm="6">
+        <f t="array" ref="B9">_FV(A9,"image")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>